--- a/medicine/Sexualité et sexologie/Palindromes/Palindromes.xlsx
+++ b/medicine/Sexualité et sexologie/Palindromes/Palindromes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palindromes est un film américain réalisé par Todd Solondz, sorti en 2004.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aviva est une adolescente de 13 ans dont le souhait est d'avoir un enfant. Après la mort d'un membre de sa famille, elle rencontre Judah, qui accepte d'avoir des relations sexuelles avec elle. Aviva se retrouve enceinte. On suit ensuite les conséquences que cette maternité aura sur sa vie.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Palindromes
 Réalisation : Todd Solondz
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Matthew Faber : Mark Wiener
 Angela Pietropinto : Mrs. Wiener
@@ -647,7 +665,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'originalité du film tient dans le fait que le personnage d'Aviva est joué par différents interprètes, sept actrices et un acteur. L'ordre d'apparition de ceux-ci suit une structure palindromique. Le nom des personnages principaux Aviva, Bob et Otto sont d'ailleurs tous des palindromes.
 Le personnage qui est enterré au début du film est Dawn Wiener, qui n'est autre que le personnage principal du premier film à succès de Todd Solondz : Bienvenue dans l'âge ingrat.
